--- a/Model prediction logs.xlsx
+++ b/Model prediction logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\Mohit\Coding Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\Mohit\UFC-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF1D1D1-B090-464F-A382-C0184313B688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB40D7E-70C4-4829-AE85-3CD20912F9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{91DF0BB8-4C7B-428B-BA07-9B96CA52768A}"/>
+    <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{91DF0BB8-4C7B-428B-BA07-9B96CA52768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Analysis" sheetId="3" r:id="rId1"/>
@@ -253,47 +253,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -341,170 +301,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -820,9 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A699129-B8BE-4B38-ABB1-37896183780F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,11 +716,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF30BDB-85FC-46FD-B5CC-2E3B9D71908F}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,15 +1059,16 @@
         <v>Correct</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Correct">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Incorrect">
+      <formula>NOT(ISERROR(SEARCH("Incorrect",R2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Correct">
       <formula>NOT(ISERROR(SEARCH("Correct",R2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Incorrect">
-      <formula>NOT(ISERROR(SEARCH("Incorrect",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,7 +1081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S3:S23" si="0">IF(Q6&lt;&gt;0,"Correct","Incorrect")</f>
+        <f t="shared" ref="S6:S22" si="0">IF(Q6&lt;&gt;0,"Correct","Incorrect")</f>
         <v>Incorrect</v>
       </c>
     </row>
@@ -1711,18 +1508,16 @@
       <c r="C48" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:S23">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Correct">
-      <formula>NOT(ISERROR(SEARCH("Correct",S2)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E2:E1048576 N2:N1048576">
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S23">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Incorrect">
       <formula>NOT(ISERROR(SEARCH("Incorrect",S2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576 N2:N1048576">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Correct">
+      <formula>NOT(ISERROR(SEARCH("Correct",S2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Model prediction logs.xlsx
+++ b/Model prediction logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\Mohit\UFC-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB40D7E-70C4-4829-AE85-3CD20912F9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B08F1D-9E07-4D1B-9B94-31DEECACD567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{91DF0BB8-4C7B-428B-BA07-9B96CA52768A}"/>
+    <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{91DF0BB8-4C7B-428B-BA07-9B96CA52768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Analysis" sheetId="3" r:id="rId1"/>
@@ -174,8 +174,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -243,11 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,9 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A699129-B8BE-4B38-ABB1-37896183780F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,52 +628,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <f>SUM('Outcome &amp; Bet Log'!Q2:Q1048576)/SUM('Outcome &amp; Bet Log'!G2:G1048576)</f>
         <v>1.3492307692307692</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>COUNTIF('Prediction &amp; Outcome Log'!R:R, "Correct")/(COUNTA('Prediction &amp; Outcome Log'!I:I)-1)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>COUNTIF('Outcome &amp; Bet Log'!S:S, "Correct")/(COUNTA('Outcome &amp; Bet Log'!G:G)-1)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Conservative") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Conservative"))</f>
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Conservative") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Conservative"))</f>
         <v>1</v>
       </c>
@@ -681,14 +682,14 @@
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Moderate") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Moderate"))</f>
         <v>0.5</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Moderate") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Moderate"))</f>
         <v>0.5</v>
       </c>
@@ -697,14 +698,14 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Aggressive") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Aggressive"))</f>
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Aggressive") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Aggressive"))</f>
         <v>0</v>
       </c>
@@ -718,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF30BDB-85FC-46FD-B5CC-2E3B9D71908F}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -1087,8 +1088,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1133,7 +1134,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="I2">
@@ -1145,7 +1146,7 @@
       <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>10</v>
       </c>
       <c r="S2" t="str">
@@ -1190,7 +1191,7 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="I6">
@@ -1202,7 +1203,7 @@
       <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
       <c r="S6" t="str">
@@ -1271,7 +1272,7 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1283,7 +1284,7 @@
       <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>2.17</v>
       </c>
       <c r="S12" t="str">
@@ -1313,7 +1314,7 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="I15">
@@ -1325,7 +1326,7 @@
       <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="S15" t="str">
@@ -1355,7 +1356,7 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="I18">
@@ -1367,7 +1368,7 @@
       <c r="N18" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>3.5</v>
       </c>
       <c r="S18" t="str">
@@ -1406,7 +1407,7 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="I22">
@@ -1418,7 +1419,7 @@
       <c r="N22" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>1.87</v>
       </c>
       <c r="S22" t="str">

--- a/Model prediction logs.xlsx
+++ b/Model prediction logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\Mohit\UFC-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B08F1D-9E07-4D1B-9B94-31DEECACD567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465C764-6B77-49F0-A314-AB73D779CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{91DF0BB8-4C7B-428B-BA07-9B96CA52768A}"/>
   </bookViews>
@@ -174,9 +174,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -244,11 +243,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,52 +627,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <f>SUM('Outcome &amp; Bet Log'!Q2:Q1048576)/SUM('Outcome &amp; Bet Log'!G2:G1048576)</f>
         <v>1.3492307692307692</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <f>COUNTIF('Prediction &amp; Outcome Log'!R:R, "Correct")/(COUNTA('Prediction &amp; Outcome Log'!I:I)-1)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <f>COUNTIF('Outcome &amp; Bet Log'!S:S, "Correct")/(COUNTA('Outcome &amp; Bet Log'!G:G)-1)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Conservative") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Conservative"))</f>
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="5">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Conservative") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Conservative"))</f>
         <v>1</v>
       </c>
@@ -682,14 +681,14 @@
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Moderate") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Moderate"))</f>
         <v>0.5</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Moderate") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Moderate"))</f>
         <v>0.5</v>
       </c>
@@ -698,14 +697,14 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f>COUNTIFS('Prediction &amp; Outcome Log'!R:R, "Correct", 'Prediction &amp; Outcome Log'!L:L, "Aggressive") / (COUNTIF('Prediction &amp; Outcome Log'!L:L, "Aggressive"))</f>
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>COUNTIFS('Outcome &amp; Bet Log'!S:S, "Correct", 'Outcome &amp; Bet Log'!L:L, "Aggressive") / (COUNTIF('Outcome &amp; Bet Log'!L:L, "Aggressive"))</f>
         <v>0</v>
       </c>
@@ -1088,8 +1087,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1134,7 +1133,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
       <c r="I2">
@@ -1146,7 +1145,7 @@
       <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <v>10</v>
       </c>
       <c r="S2" t="str">
@@ -1191,7 +1190,7 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="I6">
@@ -1203,7 +1202,7 @@
       <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
       <c r="S6" t="str">
@@ -1272,7 +1271,7 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1284,7 +1283,7 @@
       <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>2.17</v>
       </c>
       <c r="S12" t="str">
@@ -1314,7 +1313,7 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>2</v>
       </c>
       <c r="I15">
@@ -1326,7 +1325,7 @@
       <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <v>0</v>
       </c>
       <c r="S15" t="str">
@@ -1356,7 +1355,7 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="I18">
@@ -1368,7 +1367,7 @@
       <c r="N18" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="4">
         <v>3.5</v>
       </c>
       <c r="S18" t="str">
@@ -1407,7 +1406,7 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="I22">
@@ -1419,7 +1418,7 @@
       <c r="N22" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="4">
         <v>1.87</v>
       </c>
       <c r="S22" t="str">
